--- a/Requisiti/Consegna/Data_Dictionary_3.xlsx
+++ b/Requisiti/Consegna/Data_Dictionary_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saretta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{872FBF71-9581-4472-90D0-BA7336EC77C5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4255A2A9-E91D-4406-AD02-51E3720B9285}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{EE6D8A4B-0FAC-4083-8449-5E92AAEA0F90}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{EE6D8A4B-0FAC-4083-8449-5E92AAEA0F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
   <si>
     <t>NOME</t>
   </si>
@@ -81,12 +81,6 @@
     <t>carlo_banfi</t>
   </si>
   <si>
-    <t>"C'è un ingorgo in via Petrarca, Como"</t>
-  </si>
-  <si>
-    <t>"C'è stato un incidente in via Visconti, Como"</t>
-  </si>
-  <si>
     <t>Utilizzatore</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>Avviso</t>
   </si>
   <si>
-    <t>_NIckname _Password _Email</t>
-  </si>
-  <si>
     <t>Unità di controllo stradale</t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>Feed</t>
   </si>
   <si>
-    <t>_Codice utente</t>
-  </si>
-  <si>
     <t>Mario Rossi</t>
   </si>
   <si>
@@ -238,6 +226,18 @@
   </si>
   <si>
     <t xml:space="preserve">_Utente </t>
+  </si>
+  <si>
+    <t>_Nickname _Password</t>
+  </si>
+  <si>
+    <t>"In via Visconti il traffico è scorrevole"</t>
+  </si>
+  <si>
+    <t>"C'è traffico intenso in via Petrarca"</t>
+  </si>
+  <si>
+    <t>_Nome _Cognome _Nickname _Password</t>
   </si>
 </sst>
 </file>
@@ -407,13 +407,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>79376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1635588</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1190626</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -436,7 +436,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4794250" y="6635751"/>
+          <a:off x="4794250" y="6667501"/>
           <a:ext cx="1397463" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4E8687-6DD1-45CA-BFE8-687C71C89781}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,25 +802,25 @@
         <v>13</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>17</v>
@@ -840,16 +840,16 @@
         <v>9</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -857,231 +857,229 @@
         <v>10</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="H8" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="I9" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="147.75" customHeight="1" x14ac:dyDescent="0.25"/>
